--- a/REGULAR/TREASURY/SALONGA LUCY..xlsx
+++ b/REGULAR/TREASURY/SALONGA LUCY..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALMA\Desktop\LEAVE CARD11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765DFEE-D30B-42F3-A315-4FAEA5B75F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89574C0-1747-47AA-BE4B-9AFDF94F97C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,6 +310,9 @@
   </si>
   <si>
     <t>9/16/23/30/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -693,6 +688,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,12 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1005,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1339,91 +1334,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
+      <selection activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1431,7 +1426,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1444,24 +1439,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1505,7 +1500,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.902999999999992</v>
+        <v>93.152999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1515,12 +1510,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.707999999999998</v>
+        <v>87.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1540,8 +1535,8 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="20"/>
@@ -1558,7 +1553,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1578,11 +1573,11 @@
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="60">
+      <c r="K12" s="49">
         <v>43344</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1602,7 +1597,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43525</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1646,11 +1641,11 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="60">
+      <c r="K15" s="49">
         <v>43377</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>49</v>
@@ -1674,7 +1669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -1718,7 +1713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -1738,11 +1733,11 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="60">
+      <c r="K19" s="49">
         <v>43227</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43252</v>
       </c>
@@ -1762,7 +1757,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43282</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -1840,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -1866,7 +1861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43405</v>
       </c>
@@ -1886,11 +1881,11 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="60">
+      <c r="K25" s="49">
         <v>43231</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -1908,11 +1903,11 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="60">
+      <c r="K26" s="49">
         <v>43293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -1938,8 +1933,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="20"/>
@@ -1956,7 +1951,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -1998,7 +1993,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43525</v>
       </c>
@@ -2020,11 +2015,11 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="60">
+      <c r="K31" s="49">
         <v>43558</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -2046,7 +2041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -2066,7 +2061,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -2086,7 +2081,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -2106,11 +2101,11 @@
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="60">
+      <c r="K35" s="49">
         <v>43561</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -2132,7 +2127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>46</v>
@@ -2154,7 +2149,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -2174,7 +2169,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -2198,7 +2193,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -2222,7 +2217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>55</v>
@@ -2244,7 +2239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43709</v>
       </c>
@@ -2268,7 +2263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>51</v>
@@ -2290,7 +2285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>72</v>
@@ -2312,7 +2307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43739</v>
       </c>
@@ -2332,7 +2327,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43770</v>
       </c>
@@ -2354,11 +2349,11 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="60">
+      <c r="K46" s="49">
         <v>43596</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43800</v>
       </c>
@@ -2378,8 +2373,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="20"/>
@@ -2396,7 +2391,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43831</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>51</v>
@@ -2436,11 +2431,11 @@
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="60">
+      <c r="K50" s="49">
         <v>44105</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43862</v>
       </c>
@@ -2464,7 +2459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -2482,11 +2477,11 @@
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="60">
+      <c r="K52" s="49">
         <v>44107</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43891</v>
       </c>
@@ -2506,7 +2501,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43922</v>
       </c>
@@ -2526,7 +2521,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43952</v>
       </c>
@@ -2546,7 +2541,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43983</v>
       </c>
@@ -2566,7 +2561,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44013</v>
       </c>
@@ -2590,7 +2585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44044</v>
       </c>
@@ -2610,7 +2605,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44075</v>
       </c>
@@ -2632,11 +2627,11 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="60">
+      <c r="K59" s="49">
         <v>44083</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44105</v>
       </c>
@@ -2656,7 +2651,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44136</v>
       </c>
@@ -2676,7 +2671,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44166</v>
       </c>
@@ -2702,8 +2697,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="20"/>
@@ -2720,7 +2715,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44197</v>
       </c>
@@ -2740,7 +2735,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44228</v>
       </c>
@@ -2760,7 +2755,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44256</v>
       </c>
@@ -2780,7 +2775,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44287</v>
       </c>
@@ -2800,7 +2795,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44317</v>
       </c>
@@ -2820,7 +2815,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44348</v>
       </c>
@@ -2840,7 +2835,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44378</v>
       </c>
@@ -2866,7 +2861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44409</v>
       </c>
@@ -2886,7 +2881,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44440</v>
       </c>
@@ -2912,7 +2907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44470</v>
       </c>
@@ -2932,7 +2927,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44501</v>
       </c>
@@ -2952,7 +2947,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44531</v>
       </c>
@@ -2978,8 +2973,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="20"/>
@@ -2996,7 +2991,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -3016,7 +3011,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -3036,7 +3031,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -3054,11 +3049,11 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="60">
+      <c r="K79" s="49">
         <v>43924</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>46</v>
@@ -3076,11 +3071,11 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="60">
+      <c r="K80" s="49">
         <v>44077</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>43922</v>
       </c>
@@ -3100,7 +3095,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44682</v>
       </c>
@@ -3120,7 +3115,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44713</v>
       </c>
@@ -3140,7 +3135,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -3160,7 +3155,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -3186,7 +3181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -3212,56 +3207,70 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>44835</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>44866</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>44896</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="48" t="s">
+        <v>92</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3276,40 +3285,54 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="K91" s="49">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>44958</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>44986</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3324,8 +3347,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45017</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3340,8 +3365,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45047</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3356,8 +3383,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45078</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3372,8 +3401,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45108</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3388,8 +3419,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45139</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3404,8 +3437,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45170</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3420,8 +3455,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45200</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3436,8 +3473,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45231</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3452,8 +3491,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45261</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3468,8 +3509,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45292</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3484,8 +3527,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45323</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3500,8 +3545,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45352</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3516,8 +3563,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45383</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3532,8 +3581,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45413</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3548,8 +3599,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45444</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3564,8 +3617,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45474</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3580,8 +3635,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45505</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3596,8 +3653,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45536</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3612,8 +3671,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45566</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3628,8 +3689,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45597</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3644,8 +3707,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45627</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3660,8 +3725,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>45658</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3676,8 +3743,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>45689</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3692,8 +3761,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>45717</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3708,8 +3779,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>45748</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3724,8 +3797,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>45778</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3740,8 +3815,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>45809</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3756,8 +3833,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>45839</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3772,8 +3851,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>45870</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3788,8 +3869,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>45901</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3804,8 +3887,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>45931</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3820,8 +3905,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>45962</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3836,8 +3923,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
+        <v>45992</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3852,8 +3941,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>46023</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3868,7 +3959,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3884,7 +3975,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3900,21 +3991,37 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3930,7 +4037,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -3947,8 +4054,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                                 OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3964,34 +4071,34 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="56" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +4127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>48.652999999999999</v>
       </c>
@@ -4044,17 +4151,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4068,14 +4175,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4102,7 +4209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4128,7 +4235,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4154,7 +4261,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4180,7 +4287,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4206,7 +4313,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4232,7 +4339,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4258,7 +4365,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4284,7 +4391,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4304,7 +4411,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4324,7 +4431,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4344,7 +4451,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4365,7 +4472,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4386,7 +4493,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4407,7 +4514,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4428,7 +4535,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4449,7 +4556,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4470,7 +4577,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4491,7 +4598,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4512,7 +4619,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4533,7 +4640,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4554,7 +4661,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4575,7 +4682,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4596,7 +4703,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4617,7 +4724,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4638,7 +4745,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4659,7 +4766,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4680,7 +4787,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4701,7 +4808,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4722,7 +4829,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4743,7 +4850,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4764,7 +4871,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4773,7 +4880,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4782,7 +4889,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4791,7 +4898,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4800,7 +4907,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4809,7 +4916,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4818,7 +4925,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4827,7 +4934,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4836,7 +4943,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4845,7 +4952,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4854,7 +4961,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4863,7 +4970,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4872,7 +4979,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4881,7 +4988,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4890,7 +4997,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4899,7 +5006,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4908,7 +5015,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4917,7 +5024,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4926,7 +5033,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4935,7 +5042,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4944,7 +5051,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4953,7 +5060,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4962,7 +5069,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4971,7 +5078,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4980,7 +5087,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4989,7 +5096,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4998,7 +5105,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5007,7 +5114,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5016,7 +5123,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5025,7 +5132,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/SALONGA LUCY..xlsx
+++ b/REGULAR/TREASURY/SALONGA LUCY..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89574C0-1747-47AA-BE4B-9AFDF94F97C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -313,12 +312,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -959,7 +961,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1005,25 +1006,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1330,34 +1331,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="G5" sqref="G5"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1379,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1399,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1419,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1426,7 +1427,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1439,7 +1440,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1456,7 +1457,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1500,7 +1501,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>93.152999999999992</v>
+        <v>93.402999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1510,12 +1511,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>87.957999999999998</v>
+        <v>89.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1535,7 +1536,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
@@ -1553,7 +1554,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1597,7 +1598,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43525</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>49</v>
@@ -1669,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -1713,7 +1714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -1737,7 +1738,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43252</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43282</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43405</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -1907,7 +1908,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>61</v>
       </c>
@@ -1951,7 +1952,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -1993,7 +1994,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43525</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -2041,7 +2042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -2061,7 +2062,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -2081,7 +2082,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -2127,7 +2128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>46</v>
@@ -2149,7 +2150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -2169,7 +2170,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -2217,7 +2218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>55</v>
@@ -2239,7 +2240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43709</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>51</v>
@@ -2285,7 +2286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>72</v>
@@ -2307,7 +2308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43739</v>
       </c>
@@ -2327,7 +2328,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43770</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>43596</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43800</v>
       </c>
@@ -2373,7 +2374,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>76</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43831</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>51</v>
@@ -2435,7 +2436,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43862</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -2481,7 +2482,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43891</v>
       </c>
@@ -2501,7 +2502,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43922</v>
       </c>
@@ -2521,7 +2522,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43952</v>
       </c>
@@ -2541,7 +2542,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43983</v>
       </c>
@@ -2561,7 +2562,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44013</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44044</v>
       </c>
@@ -2605,7 +2606,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44075</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44105</v>
       </c>
@@ -2651,7 +2652,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44136</v>
       </c>
@@ -2671,7 +2672,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44166</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>84</v>
       </c>
@@ -2715,7 +2716,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44197</v>
       </c>
@@ -2735,7 +2736,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44228</v>
       </c>
@@ -2755,7 +2756,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44256</v>
       </c>
@@ -2775,7 +2776,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44287</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44317</v>
       </c>
@@ -2815,7 +2816,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44348</v>
       </c>
@@ -2835,7 +2836,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44378</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44409</v>
       </c>
@@ -2881,7 +2882,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44440</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44470</v>
       </c>
@@ -2927,7 +2928,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44501</v>
       </c>
@@ -2947,7 +2948,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44531</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>89</v>
       </c>
@@ -2991,7 +2992,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -3011,7 +3012,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -3031,7 +3032,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>46</v>
@@ -3075,7 +3076,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>43922</v>
       </c>
@@ -3095,7 +3096,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44682</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44713</v>
       </c>
@@ -3135,7 +3136,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -3155,7 +3156,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44835</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44866</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44896</v>
       </c>
@@ -3267,7 +3268,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>92</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44927</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44958</v>
       </c>
@@ -3329,25 +3330,33 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44986</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
+      <c r="B93" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="39">
+        <v>1</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="49">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45017</v>
       </c>
@@ -3365,7 +3374,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45047</v>
       </c>
@@ -3383,7 +3392,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45078</v>
       </c>
@@ -3401,7 +3410,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45108</v>
       </c>
@@ -3419,7 +3428,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45139</v>
       </c>
@@ -3437,7 +3446,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45170</v>
       </c>
@@ -3455,7 +3464,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45200</v>
       </c>
@@ -3473,7 +3482,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45231</v>
       </c>
@@ -3491,7 +3500,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45261</v>
       </c>
@@ -3509,7 +3518,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45292</v>
       </c>
@@ -3527,7 +3536,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45323</v>
       </c>
@@ -3545,7 +3554,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45352</v>
       </c>
@@ -3563,7 +3572,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45383</v>
       </c>
@@ -3581,7 +3590,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45413</v>
       </c>
@@ -3599,7 +3608,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45444</v>
       </c>
@@ -3617,7 +3626,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45474</v>
       </c>
@@ -3635,7 +3644,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45505</v>
       </c>
@@ -3653,7 +3662,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45536</v>
       </c>
@@ -3671,7 +3680,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45566</v>
       </c>
@@ -3689,7 +3698,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45597</v>
       </c>
@@ -3707,7 +3716,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45627</v>
       </c>
@@ -3725,7 +3734,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45658</v>
       </c>
@@ -3743,7 +3752,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45689</v>
       </c>
@@ -3761,7 +3770,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45717</v>
       </c>
@@ -3779,7 +3788,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45748</v>
       </c>
@@ -3797,7 +3806,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45778</v>
       </c>
@@ -3815,7 +3824,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45809</v>
       </c>
@@ -3833,7 +3842,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45839</v>
       </c>
@@ -3851,7 +3860,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45870</v>
       </c>
@@ -3869,7 +3878,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45901</v>
       </c>
@@ -3887,7 +3896,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45931</v>
       </c>
@@ -3905,7 +3914,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45962</v>
       </c>
@@ -3923,7 +3932,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45992</v>
       </c>
@@ -3941,7 +3950,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46023</v>
       </c>
@@ -3959,7 +3968,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3975,7 +3984,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3991,7 +4000,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4007,7 +4016,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -4038,10 +4047,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4064,28 +4073,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4098,7 +4107,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4127,7 +4136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>48.652999999999999</v>
       </c>
@@ -4151,17 +4160,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4182,7 +4191,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4287,7 +4296,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4431,7 +4440,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4493,7 +4502,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4514,7 +4523,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4535,7 +4544,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4661,7 +4670,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4682,7 +4691,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4703,7 +4712,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4745,7 +4754,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4766,7 +4775,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4850,7 +4859,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4871,7 +4880,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4880,7 +4889,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4889,7 +4898,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4898,7 +4907,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4907,7 +4916,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4916,7 +4925,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4925,7 +4934,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4934,7 +4943,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4943,7 +4952,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4952,7 +4961,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4961,7 +4970,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4970,7 +4979,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4979,7 +4988,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4988,7 +4997,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4997,7 +5006,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5006,7 +5015,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5015,7 +5024,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5024,7 +5033,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5033,7 +5042,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5042,7 +5051,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5051,7 +5060,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5060,7 +5069,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5069,7 +5078,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5078,7 +5087,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5087,7 +5096,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5096,7 +5105,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5105,7 +5114,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5114,7 +5123,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5123,7 +5132,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5132,7 +5141,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
